--- a/StructureDefinition-cr-provenance.xlsx
+++ b/StructureDefinition-cr-provenance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="96">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T08:28:51+00:00</t>
+    <t>2022-03-04T08:37:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -273,10 +273,13 @@
 </t>
   </si>
   <si>
-    <t>Source system</t>
+    <t>Source system, if applicable</t>
   </si>
   <si>
     <t>cr-provenance.processing.targetSystem</t>
+  </si>
+  <si>
+    <t>Target system</t>
   </si>
   <si>
     <t>cr-provenance.processing.dateTime</t>
@@ -286,7 +289,7 @@
 </t>
   </si>
   <si>
-    <t>DateTime of change</t>
+    <t>DateTime of processing</t>
   </si>
   <si>
     <t>cr-provenance.processedData</t>
@@ -1192,10 +1195,10 @@
         <v>84</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1266,7 +1269,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1289,13 +1292,13 @@
         <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1346,7 +1349,7 @@
         <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>78</v>
@@ -1366,7 +1369,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1392,10 +1395,10 @@
         <v>79</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1446,7 +1449,7 @@
         <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>78</v>
@@ -1466,7 +1469,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1489,13 +1492,13 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1546,7 +1549,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>78</v>

--- a/StructureDefinition-cr-provenance.xlsx
+++ b/StructureDefinition-cr-provenance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T08:37:21+00:00</t>
+    <t>2022-03-08T06:55:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cr-provenance.xlsx
+++ b/StructureDefinition-cr-provenance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T08:06:35+00:00</t>
+    <t>2022-03-25T09:06:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cr-provenance.xlsx
+++ b/StructureDefinition-cr-provenance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T09:06:52+00:00</t>
+    <t>2022-03-29T15:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
